--- a/Project/Escape/Client/Assets/ExcelDataTable/MonsterInfoTable.xlsx
+++ b/Project/Escape/Client/Assets/ExcelDataTable/MonsterInfoTable.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming Projects\Programming_Group_Study\Project\Escape\Shared\ExcelDataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328EAAB8-511B-426B-9C4A-5657B3566368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6745046C-3E35-4B45-85F9-FDC09B0B6CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="15990" windowHeight="24720" activeTab="1" xr2:uid="{12171600-61B7-41DB-AC75-F2A8B18C24A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{12171600-61B7-41DB-AC75-F2A8B18C24A0}"/>
   </bookViews>
   <sheets>
     <sheet name="BasicMonster" sheetId="1" r:id="rId1"/>
-    <sheet name="BossMonster" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,55 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
-  <si>
-    <t>Goblin</t>
-  </si>
-  <si>
-    <t>Earth</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Slash, Poison Spit</t>
-  </si>
-  <si>
-    <t>images/goblin.png</t>
-  </si>
-  <si>
-    <t>Dragon</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>Fire Breath, Fly</t>
-  </si>
-  <si>
-    <t>Diamond, Dragon Scale</t>
-  </si>
-  <si>
-    <t>images/dragon.png</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Dark</t>
-  </si>
-  <si>
-    <t>Light</t>
-  </si>
-  <si>
-    <t>Bone Toss</t>
-  </si>
-  <si>
-    <t>Bone, Old Shield</t>
-  </si>
-  <si>
-    <t>images/skeleton.png</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,10 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>mp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>grade</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -107,22 +54,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>boss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>named</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>defence</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -131,30 +62,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>element</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>weakness</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>abilities</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>image path</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold, Iron Sword</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -171,15 +78,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>abc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>efg</t>
+    <t>Cube</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -595,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1D5A57-AF8C-43FA-A63D-450E1634CF8E}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,223 +509,116 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="2">
         <v>100</v>
       </c>
-      <c r="E3" s="2">
-        <v>50</v>
-      </c>
       <c r="F3" s="2">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2">
         <v>3.5</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E4" s="2">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2">
-        <v>100</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H4" s="2">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2">
         <v>2.1</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2">
-        <v>200</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>15</v>
-      </c>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -831,175 +627,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF78B6BE-7AFB-4C3A-BB81-83A26F11CF56}">
-  <dimension ref="A1:M5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2">
-        <v>100</v>
-      </c>
-      <c r="D3" s="2">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="2">
-        <v>300</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G4" s="2">
-        <v>50</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2">
-        <v>200</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>